--- a/excel_stats/Test School_stats.xlsx
+++ b/excel_stats/Test School_stats.xlsx
@@ -458,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -479,6 +479,27 @@
       <c r="E1" s="1" t="n">
         <v>45169.94900856705</v>
       </c>
+      <c r="F1" s="1" t="n">
+        <v>45170.58081569347</v>
+      </c>
+      <c r="G1" s="1" t="n">
+        <v>45170.58134490616</v>
+      </c>
+      <c r="H1" s="1" t="n">
+        <v>45170.58134808545</v>
+      </c>
+      <c r="I1" s="1" t="n">
+        <v>45170.58327978125</v>
+      </c>
+      <c r="J1" s="1" t="n">
+        <v>45170.58710709173</v>
+      </c>
+      <c r="K1" s="1" t="n">
+        <v>45170.59349493545</v>
+      </c>
+      <c r="L1" s="1" t="n">
+        <v>45170.60314964119</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -497,6 +518,27 @@
       </c>
       <c r="E2" t="n">
         <v>1</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
+      </c>
+      <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
+        <v>0</v>
+      </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/excel_stats/Test School_stats.xlsx
+++ b/excel_stats/Test School_stats.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:F2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -433,6 +433,15 @@
       <c r="C1" s="1" t="n">
         <v>45170.571947493</v>
       </c>
+      <c r="D1" s="1" t="n">
+        <v>45170.83377027183</v>
+      </c>
+      <c r="E1" s="1" t="n">
+        <v>45170.86761966983</v>
+      </c>
+      <c r="F1" s="1" t="n">
+        <v>45170.87106842284</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -445,6 +454,15 @@
       </c>
       <c r="C2" t="n">
         <v>2</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -458,7 +476,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -500,6 +518,12 @@
       <c r="L1" s="1" t="n">
         <v>45170.60314964119</v>
       </c>
+      <c r="M1" s="1" t="n">
+        <v>45170.90424678526</v>
+      </c>
+      <c r="N1" s="1" t="n">
+        <v>45170.92400196781</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -538,6 +562,12 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0</v>
+      </c>
+      <c r="N2" t="n">
         <v>0</v>
       </c>
     </row>
